--- a/public/mno-network-statistics-updates.xlsx
+++ b/public/mno-network-statistics-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaput\Documents\ZICTA\Documents\mno stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\Zicta\zicta-website-client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164F089E-11D7-46AB-9164-D81B7192925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77495132-92D8-4A3D-A048-550F404FE8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Network-Coverage" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="23">
   <si>
     <t>Zamtel</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>National</t>
+  </si>
+  <si>
+    <t>Number of 5G Sites</t>
   </si>
 </sst>
 </file>
@@ -545,31 +548,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:P42"/>
+  <dimension ref="B1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" customWidth="1"/>
-    <col min="5" max="8" width="12.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="10.5546875" style="9" customWidth="1"/>
+    <col min="5" max="9" width="12.44140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="15" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="22" t="s">
@@ -579,15 +582,16 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="24" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="25"/>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
-    </row>
-    <row r="2" spans="2:16" s="2" customFormat="1" ht="58.5" x14ac:dyDescent="0.3">
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="2:17" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
@@ -609,29 +613,32 @@
       <c r="H2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <v>2011</v>
       </c>
@@ -653,23 +660,26 @@
       <c r="H3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="21">
         <v>0</v>
       </c>
-      <c r="L3" s="21">
+      <c r="M3" s="21">
         <v>36.589999999999996</v>
       </c>
-      <c r="M3" s="21">
+      <c r="N3" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>2012</v>
       </c>
@@ -691,23 +701,26 @@
       <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="20">
-        <v>78</v>
-      </c>
-      <c r="K4" s="21">
+      <c r="I4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="20">
+        <v>78</v>
+      </c>
+      <c r="L4" s="21">
         <v>0</v>
       </c>
-      <c r="L4" s="21">
+      <c r="M4" s="21">
         <v>37.5</v>
       </c>
-      <c r="M4" s="21">
+      <c r="N4" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2013</v>
       </c>
@@ -729,23 +742,26 @@
       <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="20">
-        <v>78</v>
-      </c>
-      <c r="K5" s="21">
+      <c r="I5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="20">
+        <v>78</v>
+      </c>
+      <c r="L5" s="21">
         <v>42.699999999999996</v>
       </c>
-      <c r="L5" s="21">
+      <c r="M5" s="21">
         <v>39.42</v>
       </c>
-      <c r="M5" s="21">
+      <c r="N5" s="21">
         <v>29.67</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>2014</v>
       </c>
@@ -767,23 +783,26 @@
       <c r="H6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="20">
-        <v>78</v>
-      </c>
-      <c r="K6" s="21">
-        <v>42.7</v>
+      <c r="I6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="20">
+        <v>78</v>
       </c>
       <c r="L6" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M6" s="21">
         <v>31.679999999999996</v>
       </c>
-      <c r="M6" s="21">
+      <c r="N6" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>2015</v>
       </c>
@@ -805,23 +824,26 @@
       <c r="H7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="20">
         <v>93</v>
       </c>
-      <c r="J7" s="20">
-        <v>78</v>
-      </c>
-      <c r="K7" s="21">
-        <v>42.7</v>
+      <c r="K7" s="20">
+        <v>78</v>
       </c>
       <c r="L7" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M7" s="21">
         <v>45.4</v>
       </c>
-      <c r="M7" s="21">
+      <c r="N7" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2016</v>
       </c>
@@ -843,23 +865,26 @@
       <c r="H8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="12">
         <v>93</v>
       </c>
-      <c r="J8" s="12">
-        <v>78</v>
-      </c>
-      <c r="K8" s="11">
-        <v>42.7</v>
+      <c r="K8" s="12">
+        <v>78</v>
       </c>
       <c r="L8" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M8" s="11">
         <v>43.5</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>2016</v>
       </c>
@@ -881,23 +906,26 @@
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="12">
         <v>93</v>
       </c>
-      <c r="J9" s="12">
-        <v>78</v>
-      </c>
-      <c r="K9" s="11">
-        <v>42.7</v>
+      <c r="K9" s="12">
+        <v>78</v>
       </c>
       <c r="L9" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M9" s="11">
         <v>43.3</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>2016</v>
       </c>
@@ -919,23 +947,26 @@
       <c r="H10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="12">
         <v>93</v>
       </c>
-      <c r="J10" s="12">
-        <v>78</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="K10" s="12">
+        <v>78</v>
+      </c>
+      <c r="L10" s="11">
         <v>42.699999999999996</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="11">
         <v>44.1</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>2016</v>
       </c>
@@ -957,23 +988,26 @@
       <c r="H11" s="8">
         <v>254</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="12">
         <v>93</v>
       </c>
-      <c r="J11" s="12">
-        <v>78</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="K11" s="12">
+        <v>78</v>
+      </c>
+      <c r="L11" s="11">
         <v>42.699999999999996</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>44.1</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>2016</v>
       </c>
@@ -995,23 +1029,26 @@
       <c r="H12" s="19">
         <v>254</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="20">
         <v>93</v>
       </c>
-      <c r="J12" s="20">
-        <v>78</v>
-      </c>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
+        <v>78</v>
+      </c>
+      <c r="L12" s="21">
         <v>42.699999999999996</v>
       </c>
-      <c r="L12" s="21">
+      <c r="M12" s="21">
         <v>44.1</v>
       </c>
-      <c r="M12" s="21">
+      <c r="N12" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>2017</v>
       </c>
@@ -1033,23 +1070,26 @@
       <c r="H13" s="8">
         <v>304</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="12">
         <v>93</v>
       </c>
-      <c r="J13" s="12">
-        <v>78</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="K13" s="12">
+        <v>78</v>
+      </c>
+      <c r="L13" s="11">
         <v>42.699999999999996</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>44.1</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>2017</v>
       </c>
@@ -1071,23 +1111,26 @@
       <c r="H14" s="8">
         <v>304</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="12">
         <v>93</v>
       </c>
-      <c r="J14" s="12">
-        <v>78</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="K14" s="12">
+        <v>78</v>
+      </c>
+      <c r="L14" s="11">
         <v>42.699999999999996</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <v>44.1</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>2017</v>
       </c>
@@ -1109,23 +1152,26 @@
       <c r="H15" s="8">
         <v>304</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="12">
         <v>93</v>
       </c>
-      <c r="J15" s="12">
-        <v>78</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="K15" s="12">
+        <v>78</v>
+      </c>
+      <c r="L15" s="11">
         <v>42.699999999999996</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>44.1</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>2017</v>
       </c>
@@ -1147,23 +1193,26 @@
       <c r="H16" s="8">
         <v>803</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="12">
         <v>93</v>
       </c>
-      <c r="J16" s="12">
-        <v>78</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="K16" s="12">
+        <v>78</v>
+      </c>
+      <c r="L16" s="11">
         <v>42.699999999999996</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <v>44.1</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>2017</v>
       </c>
@@ -1185,23 +1234,26 @@
       <c r="H17" s="19">
         <v>803</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="20">
         <v>93</v>
       </c>
-      <c r="J17" s="20">
-        <v>78</v>
-      </c>
-      <c r="K17" s="21">
+      <c r="K17" s="20">
+        <v>78</v>
+      </c>
+      <c r="L17" s="21">
         <v>42.699999999999996</v>
       </c>
-      <c r="L17" s="21">
+      <c r="M17" s="21">
         <v>44.1</v>
       </c>
-      <c r="M17" s="21">
+      <c r="N17" s="21">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>2018</v>
       </c>
@@ -1223,23 +1275,26 @@
       <c r="H18" s="8">
         <v>877</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="12">
         <v>93</v>
       </c>
-      <c r="J18" s="12">
-        <v>78</v>
-      </c>
-      <c r="K18" s="11">
-        <v>42.7</v>
+      <c r="K18" s="12">
+        <v>78</v>
       </c>
       <c r="L18" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M18" s="11">
         <v>44.14</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>2018</v>
       </c>
@@ -1261,23 +1316,26 @@
       <c r="H19" s="8">
         <v>1048</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="12">
         <v>93</v>
       </c>
-      <c r="J19" s="12">
-        <v>78</v>
-      </c>
-      <c r="K19" s="11">
-        <v>42.7</v>
+      <c r="K19" s="12">
+        <v>78</v>
       </c>
       <c r="L19" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M19" s="11">
         <v>44.14</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <v>30.9</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>2018</v>
       </c>
@@ -1299,23 +1357,26 @@
       <c r="H20" s="8">
         <v>1070</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="12">
         <v>93</v>
       </c>
-      <c r="J20" s="12">
-        <v>78</v>
-      </c>
-      <c r="K20" s="11">
-        <v>42.7</v>
+      <c r="K20" s="12">
+        <v>78</v>
       </c>
       <c r="L20" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M20" s="11">
         <v>45.1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <v>45.09</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>2018</v>
       </c>
@@ -1337,23 +1398,26 @@
       <c r="H21" s="8">
         <v>1212</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="12">
         <v>93</v>
       </c>
-      <c r="J21" s="12">
-        <v>78</v>
-      </c>
-      <c r="K21" s="11">
-        <v>42.7</v>
+      <c r="K21" s="12">
+        <v>78</v>
       </c>
       <c r="L21" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M21" s="11">
         <v>45.12</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="11">
         <v>49.5</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>2018</v>
       </c>
@@ -1375,23 +1439,26 @@
       <c r="H22" s="19">
         <v>1212</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="20">
         <v>86.9</v>
       </c>
-      <c r="J22" s="20">
-        <v>78</v>
-      </c>
-      <c r="K22" s="21">
-        <v>42.7</v>
+      <c r="K22" s="20">
+        <v>78</v>
       </c>
       <c r="L22" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M22" s="21">
         <v>45.12</v>
       </c>
-      <c r="M22" s="21">
+      <c r="N22" s="21">
         <v>49.5</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>2019</v>
       </c>
@@ -1413,23 +1480,26 @@
       <c r="H23" s="8">
         <v>1428</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="12">
         <v>86.9</v>
       </c>
-      <c r="J23" s="12">
-        <v>78</v>
-      </c>
-      <c r="K23" s="11">
-        <v>42.7</v>
+      <c r="K23" s="12">
+        <v>78</v>
       </c>
       <c r="L23" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M23" s="11">
         <v>44.14</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <v>51.99</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>2019</v>
       </c>
@@ -1451,23 +1521,26 @@
       <c r="H24" s="8">
         <v>1608</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="12">
         <v>86.9</v>
       </c>
-      <c r="J24" s="12">
-        <v>78</v>
-      </c>
-      <c r="K24" s="11">
-        <v>42.7</v>
+      <c r="K24" s="12">
+        <v>78</v>
       </c>
       <c r="L24" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M24" s="11">
         <v>44.17</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>2019</v>
       </c>
@@ -1489,23 +1562,26 @@
       <c r="H25" s="8">
         <v>1948</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="12">
         <v>86.9</v>
       </c>
-      <c r="J25" s="12">
-        <v>78</v>
-      </c>
-      <c r="K25" s="11">
-        <v>42.7</v>
+      <c r="K25" s="12">
+        <v>78</v>
       </c>
       <c r="L25" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M25" s="11">
         <v>44.17</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="11">
         <v>51.99</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>2019</v>
       </c>
@@ -1527,23 +1603,26 @@
       <c r="H26" s="8">
         <v>2114</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="12">
         <v>86.9</v>
       </c>
-      <c r="J26" s="12">
-        <v>78</v>
-      </c>
-      <c r="K26" s="11">
-        <v>42.7</v>
+      <c r="K26" s="12">
+        <v>78</v>
       </c>
       <c r="L26" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M26" s="11">
         <v>44.17</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <v>51.99</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>2019</v>
       </c>
@@ -1565,23 +1644,26 @@
       <c r="H27" s="19">
         <v>2114</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="20">
         <v>86.9</v>
       </c>
-      <c r="J27" s="20">
-        <v>78</v>
-      </c>
-      <c r="K27" s="21">
-        <v>42.7</v>
+      <c r="K27" s="20">
+        <v>78</v>
       </c>
       <c r="L27" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M27" s="21">
         <v>44.17</v>
       </c>
-      <c r="M27" s="21">
+      <c r="N27" s="21">
         <v>51.99</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>2020</v>
       </c>
@@ -1603,23 +1685,26 @@
       <c r="H28" s="8">
         <v>2603</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="12">
         <v>86.9</v>
       </c>
-      <c r="J28" s="12">
-        <v>78</v>
-      </c>
-      <c r="K28" s="11">
-        <v>42.7</v>
+      <c r="K28" s="12">
+        <v>78</v>
       </c>
       <c r="L28" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M28" s="11">
         <v>44.17</v>
       </c>
-      <c r="M28" s="11">
+      <c r="N28" s="11">
         <v>52.04</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>2020</v>
       </c>
@@ -1641,23 +1726,26 @@
       <c r="H29" s="8">
         <v>2849</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="12">
         <v>86.9</v>
       </c>
-      <c r="J29" s="12">
-        <v>78</v>
-      </c>
-      <c r="K29" s="11">
-        <v>42.7</v>
+      <c r="K29" s="12">
+        <v>78</v>
       </c>
       <c r="L29" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M29" s="11">
         <v>44.17</v>
       </c>
-      <c r="M29" s="11">
+      <c r="N29" s="11">
         <v>52.04</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>2020</v>
       </c>
@@ -1679,23 +1767,26 @@
       <c r="H30" s="8">
         <v>2911</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="12">
         <v>86.9</v>
       </c>
-      <c r="J30" s="12">
-        <v>78</v>
-      </c>
-      <c r="K30" s="11">
-        <v>42.7</v>
+      <c r="K30" s="12">
+        <v>78</v>
       </c>
       <c r="L30" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M30" s="11">
         <v>44.17</v>
       </c>
-      <c r="M30" s="11">
+      <c r="N30" s="11">
         <v>52.05</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>2020</v>
       </c>
@@ -1717,23 +1808,26 @@
       <c r="H31" s="8">
         <v>2758</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="12">
         <v>86.9</v>
       </c>
-      <c r="J31" s="12">
-        <v>78</v>
-      </c>
-      <c r="K31" s="11">
-        <v>42.7</v>
+      <c r="K31" s="12">
+        <v>78</v>
       </c>
       <c r="L31" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M31" s="11">
         <v>35.869999999999997</v>
       </c>
-      <c r="M31" s="11">
+      <c r="N31" s="11">
         <v>52.05</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="13">
         <v>2020</v>
       </c>
@@ -1755,23 +1849,26 @@
       <c r="H32" s="19">
         <v>2758</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="20">
         <v>86.9</v>
       </c>
-      <c r="J32" s="20">
-        <v>78</v>
-      </c>
-      <c r="K32" s="21">
-        <v>42.7</v>
+      <c r="K32" s="20">
+        <v>78</v>
       </c>
       <c r="L32" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M32" s="21">
         <v>35.869999999999997</v>
       </c>
-      <c r="M32" s="21">
+      <c r="N32" s="21">
         <v>52.05</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>2021</v>
       </c>
@@ -1793,23 +1890,26 @@
       <c r="H33" s="8">
         <v>2676</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="12">
         <v>86.9</v>
       </c>
-      <c r="J33" s="12">
-        <v>78</v>
-      </c>
-      <c r="K33" s="11">
-        <v>42.7</v>
+      <c r="K33" s="12">
+        <v>78</v>
       </c>
       <c r="L33" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M33" s="11">
         <v>35.869999999999997</v>
       </c>
-      <c r="M33" s="11">
+      <c r="N33" s="11">
         <v>52.05</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>2021</v>
       </c>
@@ -1831,23 +1931,26 @@
       <c r="H34" s="8">
         <v>2903</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="12">
         <v>86.9</v>
       </c>
-      <c r="J34" s="12">
-        <v>78</v>
-      </c>
-      <c r="K34" s="11">
-        <v>42.7</v>
+      <c r="K34" s="12">
+        <v>78</v>
       </c>
       <c r="L34" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M34" s="11">
         <v>36.31</v>
       </c>
-      <c r="M34" s="11">
+      <c r="N34" s="11">
         <v>52.05</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>2021</v>
       </c>
@@ -1869,23 +1972,26 @@
       <c r="H35" s="8">
         <v>2928</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="12">
         <v>86.9</v>
       </c>
-      <c r="J35" s="12">
-        <v>78</v>
-      </c>
-      <c r="K35" s="11">
-        <v>42.7</v>
+      <c r="K35" s="12">
+        <v>78</v>
       </c>
       <c r="L35" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M35" s="11">
         <v>36.31</v>
       </c>
-      <c r="M35" s="11">
+      <c r="N35" s="11">
         <v>52.09</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>2021</v>
       </c>
@@ -1907,23 +2013,26 @@
       <c r="H36" s="8">
         <v>3055</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="12">
         <v>86.9</v>
       </c>
-      <c r="J36" s="12">
-        <v>78</v>
-      </c>
-      <c r="K36" s="11">
-        <v>42.7</v>
+      <c r="K36" s="12">
+        <v>78</v>
       </c>
       <c r="L36" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M36" s="11">
         <v>36.31</v>
       </c>
-      <c r="M36" s="11">
+      <c r="N36" s="11">
         <v>52.1</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <v>2021</v>
       </c>
@@ -1945,23 +2054,26 @@
       <c r="H37" s="19">
         <v>3055</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="20">
         <v>86.9</v>
       </c>
-      <c r="J37" s="20">
-        <v>78</v>
-      </c>
-      <c r="K37" s="21">
-        <v>42.7</v>
+      <c r="K37" s="20">
+        <v>78</v>
       </c>
       <c r="L37" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M37" s="21">
         <v>36.31</v>
       </c>
-      <c r="M37" s="21">
+      <c r="N37" s="21">
         <v>52.1</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>2022</v>
       </c>
@@ -1983,23 +2095,26 @@
       <c r="H38" s="8">
         <v>3200</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="12">
         <v>97.2</v>
       </c>
-      <c r="J38" s="12">
+      <c r="K38" s="12">
         <v>69.900000000000006</v>
       </c>
-      <c r="K38" s="11">
-        <v>42.7</v>
-      </c>
       <c r="L38" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M38" s="11">
         <v>36.909999999999997</v>
       </c>
-      <c r="M38" s="11">
+      <c r="N38" s="11">
         <v>52.04</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>2022</v>
       </c>
@@ -2021,23 +2136,26 @@
       <c r="H39" s="8">
         <v>3486</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="12">
         <v>97.2</v>
       </c>
-      <c r="J39" s="12">
+      <c r="K39" s="12">
         <v>69.900000000000006</v>
       </c>
-      <c r="K39" s="11">
-        <v>42.7</v>
-      </c>
       <c r="L39" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M39" s="11">
         <v>36.979999999999997</v>
       </c>
-      <c r="M39" s="11">
+      <c r="N39" s="11">
         <v>52.04</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>2022</v>
       </c>
@@ -2059,23 +2177,26 @@
       <c r="H40" s="8">
         <v>3402</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="12">
         <v>97.2</v>
       </c>
-      <c r="J40" s="12">
+      <c r="K40" s="12">
         <v>69.900000000000006</v>
       </c>
-      <c r="K40" s="11">
-        <v>42.7</v>
-      </c>
       <c r="L40" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M40" s="11">
         <v>37</v>
       </c>
-      <c r="M40" s="11">
+      <c r="N40" s="11">
         <v>52.04</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>2022</v>
       </c>
@@ -2097,23 +2218,26 @@
       <c r="H41" s="8">
         <v>3430</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="12">
         <v>97.2</v>
       </c>
-      <c r="J41" s="12">
+      <c r="K41" s="12">
         <v>69.900000000000006</v>
       </c>
-      <c r="K41" s="11">
-        <v>42.7</v>
-      </c>
       <c r="L41" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M41" s="11">
         <v>37</v>
       </c>
-      <c r="M41" s="11">
+      <c r="N41" s="11">
         <v>52.04</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <v>2022</v>
       </c>
@@ -2135,20 +2259,228 @@
       <c r="H42" s="19">
         <v>3430</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="20">
         <v>97.2</v>
       </c>
-      <c r="J42" s="20">
+      <c r="K42" s="20">
         <v>69.900000000000006</v>
       </c>
-      <c r="K42" s="21">
-        <v>42.7</v>
-      </c>
       <c r="L42" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M42" s="21">
         <v>37</v>
       </c>
-      <c r="M42" s="21">
+      <c r="N42" s="21">
         <v>52.04</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8">
+        <v>3547</v>
+      </c>
+      <c r="E43" s="8">
+        <v>4681</v>
+      </c>
+      <c r="F43" s="8">
+        <v>3912</v>
+      </c>
+      <c r="G43" s="8">
+        <v>201</v>
+      </c>
+      <c r="H43" s="8">
+        <v>3814</v>
+      </c>
+      <c r="I43" s="8">
+        <v>107</v>
+      </c>
+      <c r="J43" s="12">
+        <v>86.29</v>
+      </c>
+      <c r="K43" s="12">
+        <v>42.699999999999996</v>
+      </c>
+      <c r="L43" s="11">
+        <v>42.699999999999996</v>
+      </c>
+      <c r="M43" s="11">
+        <v>38.39</v>
+      </c>
+      <c r="N43" s="11">
+        <v>28.999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8">
+        <v>3532</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4701</v>
+      </c>
+      <c r="F44" s="8">
+        <v>3932</v>
+      </c>
+      <c r="G44" s="8">
+        <v>201</v>
+      </c>
+      <c r="H44" s="8">
+        <v>3834</v>
+      </c>
+      <c r="I44" s="8">
+        <v>123</v>
+      </c>
+      <c r="J44" s="12">
+        <v>86.59</v>
+      </c>
+      <c r="K44" s="12">
+        <v>52</v>
+      </c>
+      <c r="L44" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M44" s="11">
+        <v>38.5</v>
+      </c>
+      <c r="N44" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3568</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4735</v>
+      </c>
+      <c r="F45" s="8">
+        <v>4149</v>
+      </c>
+      <c r="G45" s="8">
+        <v>201</v>
+      </c>
+      <c r="H45" s="8">
+        <v>3865</v>
+      </c>
+      <c r="I45" s="8">
+        <v>125</v>
+      </c>
+      <c r="J45" s="12">
+        <v>86.59</v>
+      </c>
+      <c r="K45" s="12">
+        <v>52</v>
+      </c>
+      <c r="L45" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M45" s="11">
+        <v>38.5</v>
+      </c>
+      <c r="N45" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3568</v>
+      </c>
+      <c r="E46" s="8">
+        <v>4778</v>
+      </c>
+      <c r="F46" s="8">
+        <v>4104</v>
+      </c>
+      <c r="G46" s="8">
+        <v>201</v>
+      </c>
+      <c r="H46" s="8">
+        <v>3926</v>
+      </c>
+      <c r="I46" s="8">
+        <v>167</v>
+      </c>
+      <c r="J46" s="12">
+        <v>88.89</v>
+      </c>
+      <c r="K46" s="12">
+        <v>52</v>
+      </c>
+      <c r="L46" s="11">
+        <v>42.7</v>
+      </c>
+      <c r="M46" s="11">
+        <v>46.69</v>
+      </c>
+      <c r="N46" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="19">
+        <v>3568</v>
+      </c>
+      <c r="E47" s="19">
+        <v>4778</v>
+      </c>
+      <c r="F47" s="19">
+        <v>4104</v>
+      </c>
+      <c r="G47" s="19">
+        <v>201</v>
+      </c>
+      <c r="H47" s="19">
+        <v>3926</v>
+      </c>
+      <c r="I47" s="19">
+        <v>167</v>
+      </c>
+      <c r="J47" s="20">
+        <v>88.89</v>
+      </c>
+      <c r="K47" s="20">
+        <v>52</v>
+      </c>
+      <c r="L47" s="21">
+        <v>42.7</v>
+      </c>
+      <c r="M47" s="21">
+        <v>46.69</v>
+      </c>
+      <c r="N47" s="21">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
